--- a/exemplos/exemplo lacon.xlsx
+++ b/exemplos/exemplo lacon.xlsx
@@ -18,6 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$AF$3</definedName>
     <definedName name="parcela">[1]Listas!$B$1:$B$10</definedName>
     <definedName name="Status">[1]Listas!$A$1:$A$4</definedName>
   </definedNames>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
   <si>
     <t>MÊS DE PAGAMENTO: MARÇO - 2023</t>
   </si>
@@ -459,6 +460,12 @@
   </si>
   <si>
     <t>Cerca Elétrica</t>
+  </si>
+  <si>
+    <t>SIMPLES</t>
+  </si>
+  <si>
+    <t>simples</t>
   </si>
 </sst>
 </file>
@@ -869,7 +876,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,21 +1152,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,9 +1173,6 @@
     <xf numFmtId="4" fontId="23" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,22 +1185,15 @@
     <xf numFmtId="4" fontId="23" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="23" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,55 +1259,70 @@
     <xf numFmtId="4" fontId="21" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1857,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,11 +1864,11 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="169" customWidth="1"/>
+    <col min="5" max="5" width="12" style="159" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="152" customWidth="1"/>
-    <col min="8" max="9" width="13" style="153" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="153" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="143" customWidth="1"/>
+    <col min="8" max="9" width="13" style="144" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="144" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="14" width="4" customWidth="1"/>
@@ -1896,158 +1893,158 @@
     <col min="33" max="36" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="158" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="157"/>
-    </row>
-    <row r="2" spans="1:31" s="158" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+    <row r="1" spans="1:31" s="149" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="148"/>
+    </row>
+    <row r="2" spans="1:31" s="149" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="164"/>
-    </row>
-    <row r="3" spans="1:31" s="165" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="154"/>
+    </row>
+    <row r="3" spans="1:31" s="155" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="113"/>
+      <c r="N3" s="171"/>
       <c r="O3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="114" t="s">
+      <c r="P3" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="115"/>
+      <c r="Q3" s="173"/>
       <c r="R3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="113"/>
+      <c r="T3" s="171"/>
       <c r="U3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="113" t="s">
+      <c r="V3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="113"/>
+      <c r="W3" s="171"/>
       <c r="X3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="117" t="s">
+      <c r="Y3" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="118" t="s">
+      <c r="Z3" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="AA3" s="117" t="s">
+      <c r="AA3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="117" t="s">
+      <c r="AB3" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="118" t="s">
+      <c r="AC3" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="118" t="s">
+      <c r="AD3" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="AE3" s="117" t="s">
+      <c r="AE3" s="112" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2064,21 +2061,21 @@
       <c r="D4" s="5">
         <v>44990</v>
       </c>
-      <c r="E4" s="175">
+      <c r="E4" s="165">
         <v>45008</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F7" si="0">K4+L4+O4+R4+U4+Y4+Z4+AB4+AC4+AD4-AA4</f>
         <v>7130.22</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="121">
+      <c r="I4" s="117"/>
+      <c r="J4" s="116">
         <f>F4-AC4-K4</f>
         <v>679.47000000000025</v>
       </c>
@@ -2125,24 +2122,24 @@
       <c r="D5" s="5">
         <v>44990</v>
       </c>
-      <c r="E5" s="175">
+      <c r="E5" s="165">
         <v>45008</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>6843.9000000000005</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="117">
         <f t="shared" ref="I5:I7" si="1">K5</f>
         <v>6016.6</v>
       </c>
-      <c r="J5" s="121">
+      <c r="J5" s="116">
         <v>652.13</v>
       </c>
       <c r="K5" s="7">
@@ -2188,22 +2185,24 @@
       <c r="D6" s="5">
         <v>44995</v>
       </c>
-      <c r="E6" s="175">
+      <c r="E6" s="165">
         <v>44999</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>10602.08</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121" t="s">
+      <c r="G6" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="117">
         <f t="shared" si="1"/>
         <v>9593.86</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="116">
         <f t="shared" ref="J6:J7" si="2">F6-K6-L6-O6-R6-U6-X6-Y6-AA6-AB6-AC6-AD6</f>
         <v>-6.8212102632969618E-13</v>
       </c>
@@ -2252,22 +2251,24 @@
       <c r="D7" s="5">
         <v>44995</v>
       </c>
-      <c r="E7" s="175">
+      <c r="E7" s="165">
         <v>44999</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121" t="s">
+      <c r="G7" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="117">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2306,12 +2307,14 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="175"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
+      <c r="G8" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="6"/>
       <c r="L8" s="13">
         <v>0</v>
@@ -2345,12 +2348,14 @@
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="176"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
+      <c r="G9" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
       <c r="M9" s="17"/>
@@ -2384,22 +2389,24 @@
       <c r="D10" s="5">
         <v>44982</v>
       </c>
-      <c r="E10" s="175">
+      <c r="E10" s="165">
         <v>44987</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="3">K10+L10+O10+R10+U10+Y10+Z10+AB10+AC10+AD10-AA10</f>
         <v>15055</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121" t="s">
+      <c r="G10" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="122">
+      <c r="I10" s="117">
         <f>K10</f>
         <v>15053.98</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="116">
         <v>1.02</v>
       </c>
       <c r="K10" s="6">
@@ -2446,15 +2453,17 @@
       <c r="D11" s="5">
         <v>45010</v>
       </c>
-      <c r="E11" s="175"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="G11" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
       <c r="K11" s="6"/>
       <c r="L11" s="13">
         <v>0</v>
@@ -2490,12 +2499,14 @@
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="168"/>
+      <c r="E12" s="158"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
+      <c r="G12" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
       <c r="M12" s="5"/>
@@ -2527,12 +2538,14 @@
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="176"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
+      <c r="G13" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
       <c r="M13" s="5"/>
@@ -2566,12 +2579,14 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="176"/>
+      <c r="E14" s="166"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
+      <c r="G14" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
       <c r="K14" s="25"/>
       <c r="L14" s="26"/>
       <c r="M14" s="17"/>
@@ -2605,12 +2620,14 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="176"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
+      <c r="G15" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
       <c r="M15" s="17"/>
@@ -2644,12 +2661,14 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="176"/>
+      <c r="E16" s="166"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="G16" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
       <c r="K16" s="33"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
@@ -2687,22 +2706,24 @@
       <c r="D17" s="5">
         <v>44995</v>
       </c>
-      <c r="E17" s="170">
+      <c r="E17" s="160">
         <v>44992</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ref="F17:F31" si="4">K17+L17+O17+R17+U17+Y17+Z17+AB17+AC17+AD17-AA17</f>
         <v>3547.24</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121" t="s">
+      <c r="G17" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="122">
+      <c r="I17" s="117">
         <f>K17</f>
         <v>2280.39</v>
       </c>
-      <c r="J17" s="121">
+      <c r="J17" s="116">
         <f>F17-K17-L17-O17</f>
         <v>0</v>
       </c>
@@ -2749,21 +2770,23 @@
       <c r="D18" s="5">
         <v>44985</v>
       </c>
-      <c r="E18" s="177">
+      <c r="E18" s="167">
         <v>44987</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="4"/>
         <v>3342.3</v>
       </c>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121" t="s">
+      <c r="G18" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="122">
+      <c r="I18" s="117">
         <v>2445.3000000000002</v>
       </c>
-      <c r="J18" s="121">
+      <c r="J18" s="116">
         <f>F18-K18-L18</f>
         <v>0</v>
       </c>
@@ -2809,22 +2832,24 @@
       <c r="D19" s="5">
         <v>45015</v>
       </c>
-      <c r="E19" s="177">
+      <c r="E19" s="167">
         <v>45016</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="4"/>
         <v>3712.15</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121" t="s">
+      <c r="G19" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="117">
         <f t="shared" ref="I19:I22" si="5">K19</f>
         <v>2445.3000000000002</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="116">
         <f>F19-K19-L19-O19</f>
         <v>0</v>
       </c>
@@ -2874,22 +2899,24 @@
       <c r="D20" s="5">
         <v>44995</v>
       </c>
-      <c r="E20" s="175">
+      <c r="E20" s="165">
         <v>44999</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="4"/>
         <v>4015.3900000000003</v>
       </c>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121" t="s">
+      <c r="G20" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="122">
+      <c r="I20" s="117">
         <f t="shared" si="5"/>
         <v>2445.3000000000002</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="116">
         <f>F20-K20-L20-O20-R20-U20-X20-Y20-AA20-AB20-AC20-AD20</f>
         <v>1.1368683772161603E-13</v>
       </c>
@@ -2940,22 +2967,24 @@
       <c r="D21" s="5">
         <v>44990</v>
       </c>
-      <c r="E21" s="175">
+      <c r="E21" s="165">
         <v>44993</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="4"/>
         <v>3753.43</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121" t="s">
+      <c r="G21" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="122">
+      <c r="I21" s="117">
         <f t="shared" si="5"/>
         <v>2486.58</v>
       </c>
-      <c r="J21" s="121">
+      <c r="J21" s="116">
         <f>F21-K21-L21-O21</f>
         <v>0</v>
       </c>
@@ -3002,22 +3031,24 @@
       <c r="D22" s="5">
         <v>44920</v>
       </c>
-      <c r="E22" s="175">
+      <c r="E22" s="165">
         <v>45012</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="4"/>
         <v>4954.97</v>
       </c>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121" t="s">
+      <c r="G22" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="122">
+      <c r="I22" s="117">
         <f t="shared" si="5"/>
         <v>2916.65</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="116">
         <v>573.88</v>
       </c>
       <c r="K22" s="7">
@@ -3082,21 +3113,23 @@
       <c r="D23" s="5">
         <v>44982</v>
       </c>
-      <c r="E23" s="175">
+      <c r="E23" s="165">
         <v>44987</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="4"/>
         <v>3907.02</v>
       </c>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121" t="s">
+      <c r="G23" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="122">
+      <c r="I23" s="117">
         <v>2500</v>
       </c>
-      <c r="J23" s="121">
+      <c r="J23" s="116">
         <v>358.4</v>
       </c>
       <c r="K23" s="7">
@@ -3144,15 +3177,17 @@
       <c r="D24" s="5">
         <v>45010</v>
       </c>
-      <c r="E24" s="175"/>
+      <c r="E24" s="165"/>
       <c r="F24" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
+      <c r="G24" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
@@ -3190,22 +3225,24 @@
       <c r="D25" s="5">
         <v>44995</v>
       </c>
-      <c r="E25" s="175">
+      <c r="E25" s="165">
         <v>44999</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="4"/>
         <v>3308</v>
       </c>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121" t="s">
+      <c r="G25" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="122">
+      <c r="I25" s="117">
         <f t="shared" ref="I25:I31" si="6">K25</f>
         <v>2411</v>
       </c>
-      <c r="J25" s="121">
+      <c r="J25" s="116">
         <f>F25-K25-L25-O25-R25-U25-X25-Y25-AA25-AB25-AC25-AD25</f>
         <v>0</v>
       </c>
@@ -3248,22 +3285,24 @@
       <c r="D26" s="5">
         <v>45005</v>
       </c>
-      <c r="E26" s="175">
+      <c r="E26" s="165">
         <v>45007</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="4"/>
         <v>11670.529999999999</v>
       </c>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121" t="s">
+      <c r="G26" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="122">
+      <c r="I26" s="117">
         <f t="shared" si="6"/>
         <v>7271.74</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="116">
         <f>F26-K26-L26-O26</f>
         <v>0</v>
       </c>
@@ -3312,22 +3351,24 @@
       <c r="D27" s="5">
         <v>45000</v>
       </c>
-      <c r="E27" s="175">
+      <c r="E27" s="165">
         <v>44991</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="4"/>
         <v>4100</v>
       </c>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121" t="s">
+      <c r="G27" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="122">
+      <c r="I27" s="117">
         <f t="shared" si="6"/>
         <v>4100</v>
       </c>
-      <c r="J27" s="121">
+      <c r="J27" s="116">
         <f>F27-K27-L27-O27-R27-U27-Y27-AA27-AB27-AC27-AD27</f>
         <v>0</v>
       </c>
@@ -3370,22 +3411,24 @@
       <c r="D28" s="5">
         <v>44995</v>
       </c>
-      <c r="E28" s="175">
+      <c r="E28" s="165">
         <v>44993</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="4"/>
         <v>6536.63</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121" t="s">
+      <c r="G28" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="117">
         <f t="shared" si="6"/>
         <v>4456.22</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="116">
         <f t="shared" ref="J28:J29" si="7">F28-K28-L28-O28</f>
         <v>0</v>
       </c>
@@ -3436,22 +3479,24 @@
       <c r="D29" s="5">
         <v>44990</v>
       </c>
-      <c r="E29" s="175">
+      <c r="E29" s="165">
         <v>44994</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
         <v>6214.79</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121" t="s">
+      <c r="G29" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="122">
+      <c r="I29" s="117">
         <f t="shared" si="6"/>
         <v>4134.38</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J29" s="116">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3500,22 +3545,24 @@
       <c r="D30" s="5">
         <v>44995</v>
       </c>
-      <c r="E30" s="175">
+      <c r="E30" s="165">
         <v>44999</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="4"/>
         <v>3856</v>
       </c>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121" t="s">
+      <c r="G30" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="122">
+      <c r="I30" s="117">
         <f t="shared" si="6"/>
         <v>3856</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J30" s="116">
         <f>F30-K30-L30-O30-R30-U30-X30-Y30-AA30-AB30-AC30-AD30</f>
         <v>0</v>
       </c>
@@ -3558,22 +3605,24 @@
       <c r="D31" s="5">
         <v>45005</v>
       </c>
-      <c r="E31" s="175">
+      <c r="E31" s="165">
         <v>45006</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="4"/>
         <v>6454.16</v>
       </c>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121" t="s">
+      <c r="G31" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="122">
+      <c r="I31" s="117">
         <f t="shared" si="6"/>
         <v>4180.37</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="116">
         <f>F31-K31-L31-O31</f>
         <v>0</v>
       </c>
@@ -3618,12 +3667,14 @@
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="176"/>
+      <c r="E32" s="166"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
+      <c r="G32" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
       <c r="K32" s="25"/>
       <c r="L32" s="26"/>
       <c r="M32" s="41"/>
@@ -3659,22 +3710,24 @@
       <c r="D33" s="5">
         <v>44990</v>
       </c>
-      <c r="E33" s="177">
+      <c r="E33" s="167">
         <v>44994</v>
       </c>
       <c r="F33" s="39">
         <f>K33+L33+O33+R33+U33+Y33+Z33+AB33+AC33+AD33-AA33</f>
         <v>4522.28</v>
       </c>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130" t="s">
+      <c r="G33" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="122">
+      <c r="I33" s="117">
         <f>K33</f>
         <v>4522.28</v>
       </c>
-      <c r="J33" s="130">
+      <c r="J33" s="123">
         <f>F33-K33</f>
         <v>0</v>
       </c>
@@ -3713,12 +3766,14 @@
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="50"/>
-      <c r="E34" s="177"/>
+      <c r="E34" s="167"/>
       <c r="F34" s="51"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
+      <c r="G34" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
       <c r="K34" s="52"/>
       <c r="L34" s="48"/>
       <c r="M34" s="41"/>
@@ -3752,12 +3807,14 @@
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="176"/>
+      <c r="E35" s="166"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
+      <c r="G35" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
       <c r="K35" s="25"/>
       <c r="L35" s="26"/>
       <c r="M35" s="41"/>
@@ -3789,12 +3846,14 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="176"/>
+      <c r="E36" s="166"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
+      <c r="G36" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
       <c r="K36" s="25"/>
       <c r="L36" s="26"/>
       <c r="M36" s="41"/>
@@ -3826,12 +3885,14 @@
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="176"/>
+      <c r="E37" s="166"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
+      <c r="G37" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
       <c r="K37" s="25"/>
       <c r="L37" s="26"/>
       <c r="M37" s="50"/>
@@ -3863,12 +3924,14 @@
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="176"/>
+      <c r="E38" s="166"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
+      <c r="G38" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
       <c r="K38" s="25"/>
       <c r="L38" s="26"/>
       <c r="M38" s="50"/>
@@ -3904,22 +3967,24 @@
       <c r="D39" s="5">
         <v>44990</v>
       </c>
-      <c r="E39" s="175">
+      <c r="E39" s="165">
         <v>45013</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ref="F39:F40" si="8">K39+L39+O39+R39+U39+Y39+Z39+AB39+AC39+AD39-AA39</f>
         <v>8396.4599999999991</v>
       </c>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121" t="s">
+      <c r="G39" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="121">
+      <c r="I39" s="116">
         <f t="shared" ref="I39:I40" si="9">K39</f>
         <v>4278.12</v>
       </c>
-      <c r="J39" s="121">
+      <c r="J39" s="116">
         <v>806.84</v>
       </c>
       <c r="K39" s="7">
@@ -3969,22 +4034,24 @@
       <c r="D40" s="5">
         <v>44990</v>
       </c>
-      <c r="E40" s="175">
+      <c r="E40" s="165">
         <v>44991</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="8"/>
         <v>8014.7</v>
       </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121" t="s">
+      <c r="G40" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="122">
+      <c r="I40" s="117">
         <f t="shared" si="9"/>
         <v>8014.7</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="116">
         <f>F40-K40-L40-O40-R40-U40-Y40-AA40-AB40-AC40-AD40</f>
         <v>0</v>
       </c>
@@ -4025,12 +4092,14 @@
         <v>44958</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="175"/>
+      <c r="E41" s="165"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
+      <c r="G41" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
       <c r="K41" s="58"/>
       <c r="L41" s="8"/>
       <c r="M41" s="5"/>
@@ -4068,22 +4137,24 @@
       <c r="D42" s="5">
         <v>44990</v>
       </c>
-      <c r="E42" s="175">
+      <c r="E42" s="165">
         <v>44993</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ref="F42:F50" si="10">K42+L42+O42+R42+U42+Y42+Z42+AB42+AC42+AD42-AA42</f>
         <v>5457.79</v>
       </c>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121" t="s">
+      <c r="G42" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="122">
+      <c r="I42" s="117">
         <f t="shared" ref="I42:I50" si="11">K42</f>
         <v>3044.31</v>
       </c>
-      <c r="J42" s="121">
+      <c r="J42" s="116">
         <f>F42-K42-L42-O42-Y42</f>
         <v>0</v>
       </c>
@@ -4134,22 +4205,24 @@
       <c r="D43" s="5">
         <v>44990</v>
       </c>
-      <c r="E43" s="175">
+      <c r="E43" s="165">
         <v>44991</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="10"/>
         <v>4231.76</v>
       </c>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121" t="s">
+      <c r="G43" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="122">
+      <c r="I43" s="117">
         <f t="shared" si="11"/>
         <v>2379.12</v>
       </c>
-      <c r="J43" s="121">
+      <c r="J43" s="116">
         <f>F43-K43-L43-O43-R43-U43-Y43-AA43-AB43-AC43-AD43</f>
         <v>2.8421709430404007E-13</v>
       </c>
@@ -4198,22 +4271,24 @@
       <c r="D44" s="5">
         <v>44982</v>
       </c>
-      <c r="E44" s="175">
+      <c r="E44" s="165">
         <v>44986</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="10"/>
         <v>4789.53</v>
       </c>
-      <c r="G44" s="121"/>
-      <c r="H44" s="135" t="s">
+      <c r="G44" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="122">
+      <c r="I44" s="117">
         <f t="shared" si="11"/>
         <v>3629.88</v>
       </c>
-      <c r="J44" s="135">
+      <c r="J44" s="126">
         <f>K44+L44+Y44-F44</f>
         <v>0</v>
       </c>
@@ -4260,22 +4335,24 @@
       <c r="D45" s="5">
         <v>45010</v>
       </c>
-      <c r="E45" s="175">
+      <c r="E45" s="165">
         <v>45014</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="10"/>
         <v>5360.92</v>
       </c>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121" t="s">
+      <c r="G45" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="122">
+      <c r="I45" s="117">
         <f t="shared" si="11"/>
         <v>3629.88</v>
       </c>
-      <c r="J45" s="121">
+      <c r="J45" s="116">
         <f>F45-K45-L45-O45-Y45</f>
         <v>0</v>
       </c>
@@ -4326,22 +4403,24 @@
       <c r="D46" s="5">
         <v>44990</v>
       </c>
-      <c r="E46" s="175">
+      <c r="E46" s="165">
         <v>44991</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="10"/>
         <v>5278.6799999999994</v>
       </c>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121" t="s">
+      <c r="G46" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="122">
+      <c r="I46" s="117">
         <f t="shared" si="11"/>
         <v>3483.64</v>
       </c>
-      <c r="J46" s="121">
+      <c r="J46" s="116">
         <f t="shared" ref="J46:J47" si="12">F46-K46-L46-O46-R46-U46-Y46-AA46-AB46-AC46-AD46</f>
         <v>-5.1159076974727213E-13</v>
       </c>
@@ -4392,22 +4471,24 @@
       <c r="D47" s="5">
         <v>44998</v>
       </c>
-      <c r="E47" s="175">
+      <c r="E47" s="165">
         <v>45000</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="10"/>
         <v>4418.96</v>
       </c>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121" t="s">
+      <c r="G47" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="122">
+      <c r="I47" s="117">
         <f t="shared" si="11"/>
         <v>2758.46</v>
       </c>
-      <c r="J47" s="121">
+      <c r="J47" s="116">
         <f t="shared" si="12"/>
         <v>-2.8421709430404007E-14</v>
       </c>
@@ -4458,22 +4539,24 @@
       <c r="D48" s="5">
         <v>44995</v>
       </c>
-      <c r="E48" s="175">
+      <c r="E48" s="165">
         <v>44998</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="10"/>
         <v>4750.0400000000009</v>
       </c>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121" t="s">
+      <c r="G48" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="122">
+      <c r="I48" s="117">
         <f t="shared" si="11"/>
         <v>3054.8</v>
       </c>
-      <c r="J48" s="121">
+      <c r="J48" s="116">
         <f>F48-K48-L48-O48-Y48</f>
         <v>6.8212102632969618E-13</v>
       </c>
@@ -4522,22 +4605,24 @@
       <c r="D49" s="5">
         <v>44905</v>
       </c>
-      <c r="E49" s="175">
+      <c r="E49" s="165">
         <v>45008</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="10"/>
         <v>6765.17</v>
       </c>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121" t="s">
+      <c r="G49" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="122">
+      <c r="I49" s="117">
         <f t="shared" si="11"/>
         <v>4023</v>
       </c>
-      <c r="J49" s="121">
+      <c r="J49" s="116">
         <v>802.21</v>
       </c>
       <c r="K49" s="7">
@@ -4605,22 +4690,24 @@
       <c r="D50" s="5">
         <v>44995</v>
       </c>
-      <c r="E50" s="175">
+      <c r="E50" s="165">
         <v>44999</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="10"/>
         <v>5787.72</v>
       </c>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121" t="s">
+      <c r="G50" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="122">
+      <c r="I50" s="117">
         <f t="shared" si="11"/>
         <v>4023</v>
       </c>
-      <c r="J50" s="121">
+      <c r="J50" s="116">
         <f>F50-K50-L50-O50-R50-U50-X50-Y50-AA50-AB50-AC50-AD50</f>
         <v>2.2737367544323206E-13</v>
       </c>
@@ -4667,12 +4754,14 @@
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="176"/>
+      <c r="E51" s="166"/>
       <c r="F51" s="60"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
+      <c r="G51" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
       <c r="K51" s="25"/>
       <c r="L51" s="34"/>
       <c r="M51" s="9"/>
@@ -4708,22 +4797,24 @@
       <c r="D52" s="5">
         <v>44995</v>
       </c>
-      <c r="E52" s="175">
+      <c r="E52" s="165">
         <v>44999</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" ref="F52:F55" si="13">K52+L52+O52+R52+U52+Y52+Z52+AB52+AC52+AD52-AA52</f>
         <v>5034.8900000000003</v>
       </c>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121" t="s">
+      <c r="G52" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="122">
+      <c r="I52" s="117">
         <f>K52</f>
         <v>3432.29</v>
       </c>
-      <c r="J52" s="121">
+      <c r="J52" s="116">
         <f>F52-K52-L52-O52-R52-U52-X52-Y52-AA52-AB52-AC52-AD52</f>
         <v>3.4106051316484809E-13</v>
       </c>
@@ -4774,21 +4865,23 @@
       <c r="D53" s="5">
         <v>44985</v>
       </c>
-      <c r="E53" s="175">
+      <c r="E53" s="165">
         <v>45015</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="13"/>
         <v>4320</v>
       </c>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121" t="s">
+      <c r="G53" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="121">
+      <c r="I53" s="116">
         <v>0</v>
       </c>
-      <c r="J53" s="121">
+      <c r="J53" s="116">
         <f>F53-AD53</f>
         <v>0</v>
       </c>
@@ -4831,22 +4924,24 @@
       <c r="D54" s="5">
         <v>45005</v>
       </c>
-      <c r="E54" s="175">
+      <c r="E54" s="165">
         <v>45006</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="13"/>
         <v>5418.48</v>
       </c>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121" t="s">
+      <c r="G54" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="122">
+      <c r="I54" s="117">
         <f t="shared" ref="I54:I55" si="14">K54</f>
         <v>3792.72</v>
       </c>
-      <c r="J54" s="121">
+      <c r="J54" s="116">
         <f>F54-K54-L54-O54-Y54</f>
         <v>-2.5579538487363607E-13</v>
       </c>
@@ -4897,22 +4992,24 @@
       <c r="D55" s="5">
         <v>44995</v>
       </c>
-      <c r="E55" s="175">
+      <c r="E55" s="165">
         <v>44999</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="13"/>
         <v>5943.8899999999994</v>
       </c>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121" t="s">
+      <c r="G55" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="122">
+      <c r="I55" s="117">
         <f t="shared" si="14"/>
         <v>4261.9799999999996</v>
       </c>
-      <c r="J55" s="121">
+      <c r="J55" s="116">
         <f>F55-K55-L55-O55-R55-U55-X55-Y55-AA55-AB55-AC55-AD55</f>
         <v>0</v>
       </c>
@@ -4957,12 +5054,14 @@
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
-      <c r="E56" s="176"/>
+      <c r="E56" s="166"/>
       <c r="F56" s="60"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
+      <c r="G56" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
       <c r="K56" s="25"/>
       <c r="L56" s="26"/>
       <c r="M56" s="17"/>
@@ -4998,22 +5097,24 @@
       <c r="D57" s="5">
         <v>45000</v>
       </c>
-      <c r="E57" s="175">
+      <c r="E57" s="165">
         <v>45002</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ref="F57:F61" si="15">K57+L57+O57+R57+U57+Y57+Z57+AB57+AC57+AD57-AA57</f>
         <v>5054.99</v>
       </c>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121" t="s">
+      <c r="G57" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="122">
+      <c r="I57" s="117">
         <f>K57</f>
         <v>4500</v>
       </c>
-      <c r="J57" s="121">
+      <c r="J57" s="116">
         <f>F57-K57-L57+AA57</f>
         <v>0</v>
       </c>
@@ -5060,15 +5161,17 @@
       <c r="D58" s="5">
         <v>44990</v>
       </c>
-      <c r="E58" s="175"/>
+      <c r="E58" s="165"/>
       <c r="F58" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
+      <c r="G58" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
       <c r="K58" s="6"/>
       <c r="L58" s="13"/>
       <c r="M58" s="17"/>
@@ -5104,22 +5207,24 @@
       <c r="D59" s="5">
         <v>44990</v>
       </c>
-      <c r="E59" s="175">
+      <c r="E59" s="165">
         <v>44992</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="15"/>
         <v>30137.260000000002</v>
       </c>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121" t="s">
+      <c r="G59" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="122">
+      <c r="I59" s="117">
         <f t="shared" ref="I59:I61" si="16">K59</f>
         <v>20658</v>
       </c>
-      <c r="J59" s="121">
+      <c r="J59" s="116">
         <f>F59-K59-L59-O59</f>
         <v>0</v>
       </c>
@@ -5167,22 +5272,24 @@
       <c r="D60" s="5">
         <v>44982</v>
       </c>
-      <c r="E60" s="175">
+      <c r="E60" s="165">
         <v>44986</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="15"/>
         <v>5200</v>
       </c>
-      <c r="G60" s="121"/>
-      <c r="H60" s="135" t="s">
+      <c r="G60" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="135">
+      <c r="I60" s="126">
         <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="J60" s="135">
+      <c r="J60" s="126">
         <f>K60+L60-F60</f>
         <v>0</v>
       </c>
@@ -5227,22 +5334,24 @@
       <c r="D61" s="5">
         <v>45010</v>
       </c>
-      <c r="E61" s="175">
+      <c r="E61" s="165">
         <v>45014</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="15"/>
         <v>6152.84</v>
       </c>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121" t="s">
+      <c r="G61" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="121">
+      <c r="I61" s="116">
         <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="J61" s="121">
+      <c r="J61" s="116">
         <f>F61-K61-L61-O61</f>
         <v>0</v>
       </c>
@@ -5287,12 +5396,14 @@
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="24"/>
-      <c r="E62" s="176"/>
+      <c r="E62" s="166"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
+      <c r="G62" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
       <c r="K62" s="25"/>
       <c r="L62" s="26"/>
       <c r="M62" s="17"/>
@@ -5330,21 +5441,23 @@
       <c r="D63" s="5">
         <v>44990</v>
       </c>
-      <c r="E63" s="175">
+      <c r="E63" s="165">
         <v>44991</v>
       </c>
       <c r="F63" s="6">
         <f>K63+L63+O63+R63+U63+Y63+Z63+AB63+AC63+AD63-AA63</f>
         <v>2410.0800000000008</v>
       </c>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121" t="s">
+      <c r="G63" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="121">
+      <c r="I63" s="116">
         <v>0</v>
       </c>
-      <c r="J63" s="121">
+      <c r="J63" s="116">
         <f>F63-K63-L63-O63-R63-U63-Y63+AA63-AB63-AC63-AD63</f>
         <v>7.673861546209082E-13</v>
       </c>
@@ -5395,12 +5508,14 @@
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="24"/>
-      <c r="E64" s="176"/>
+      <c r="E64" s="166"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
+      <c r="G64" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="121"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="121"/>
       <c r="K64" s="25"/>
       <c r="L64" s="26"/>
       <c r="M64" s="17"/>
@@ -5436,22 +5551,24 @@
       <c r="D65" s="5">
         <v>44990</v>
       </c>
-      <c r="E65" s="175">
+      <c r="E65" s="165">
         <v>44992</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" ref="F65:F67" si="17">K65+L65+O65+R65+U65+Y65+Z65+AB65+AC65+AD65-AA65</f>
         <v>6714.06</v>
       </c>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121" t="s">
+      <c r="G65" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="121">
+      <c r="I65" s="116">
         <f t="shared" ref="I65:I66" si="18">K65</f>
         <v>4000</v>
       </c>
-      <c r="J65" s="121">
+      <c r="J65" s="116">
         <f>F65-K65-L65-O65-Y65-AD65</f>
         <v>3.4106051316484809E-13</v>
       </c>
@@ -5506,22 +5623,24 @@
       <c r="D66" s="50">
         <v>44990</v>
       </c>
-      <c r="E66" s="177">
+      <c r="E66" s="167">
         <v>44994</v>
       </c>
       <c r="F66" s="39">
         <f t="shared" si="17"/>
         <v>933.31</v>
       </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130" t="s">
+      <c r="G66" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="130">
+      <c r="I66" s="123">
         <f t="shared" si="18"/>
         <v>933.31</v>
       </c>
-      <c r="J66" s="130">
+      <c r="J66" s="123">
         <f>F66-K66</f>
         <v>0</v>
       </c>
@@ -5564,21 +5683,21 @@
       <c r="D67" s="50">
         <v>44990</v>
       </c>
-      <c r="E67" s="177">
+      <c r="E67" s="167">
         <v>44994</v>
       </c>
       <c r="F67" s="39">
         <f t="shared" si="17"/>
         <v>2266.04</v>
       </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130" t="s">
+      <c r="G67" s="123"/>
+      <c r="H67" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="130">
+      <c r="I67" s="123">
         <v>0</v>
       </c>
-      <c r="J67" s="130">
+      <c r="J67" s="123">
         <f>F67-K67-L67-O67-Y67+AA67-AD67</f>
         <v>-2.2026824808563106E-13</v>
       </c>
@@ -5629,12 +5748,12 @@
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="176"/>
+      <c r="E68" s="166"/>
       <c r="F68" s="32"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
       <c r="K68" s="25"/>
       <c r="L68" s="26"/>
       <c r="M68" s="17"/>
@@ -5664,15 +5783,15 @@
       <c r="B69" s="63"/>
       <c r="C69" s="63"/>
       <c r="D69" s="64"/>
-      <c r="E69" s="178"/>
+      <c r="E69" s="168"/>
       <c r="F69" s="65">
         <f>SUM(F4:F68)</f>
         <v>266563.66000000003</v>
       </c>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
-      <c r="J69" s="136"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
       <c r="K69" s="65">
         <f>SUM(K4:K68)</f>
         <v>197488.74000000002</v>
@@ -5703,12 +5822,12 @@
       <c r="B70" s="70"/>
       <c r="C70" s="71"/>
       <c r="D70" s="72"/>
-      <c r="E70" s="179"/>
+      <c r="E70" s="169"/>
       <c r="F70" s="73"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="137"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
       <c r="L70" s="73"/>
       <c r="M70" s="73"/>
       <c r="N70" s="71"/>
@@ -5731,17 +5850,17 @@
       <c r="AE70" s="74"/>
     </row>
     <row r="71" spans="1:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="111"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="75"/>
-      <c r="F71" s="112"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="112"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="175"/>
+      <c r="K71" s="175"/>
       <c r="L71" s="76"/>
       <c r="M71" s="77"/>
       <c r="N71" s="78"/>
@@ -5773,13 +5892,13 @@
         <v>40</v>
       </c>
       <c r="C72" s="82"/>
-      <c r="E72" s="171"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
+      <c r="E72" s="161"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="175"/>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
       <c r="N72" s="84"/>
@@ -5811,12 +5930,12 @@
         <v>15</v>
       </c>
       <c r="C73" s="84"/>
-      <c r="E73" s="172"/>
+      <c r="E73" s="162"/>
       <c r="F73" s="87"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="139"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="139"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
       <c r="K73" s="77"/>
       <c r="L73" s="77"/>
       <c r="M73" s="77"/>
@@ -5849,12 +5968,12 @@
         <v>1</v>
       </c>
       <c r="D74" s="89"/>
-      <c r="E74" s="173"/>
+      <c r="E74" s="163"/>
       <c r="F74" s="90"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
+      <c r="G74" s="131"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
       <c r="K74" s="91"/>
       <c r="L74" s="91"/>
       <c r="M74" s="90"/>
@@ -5874,12 +5993,12 @@
         <v>1</v>
       </c>
       <c r="D75" s="89"/>
-      <c r="E75" s="173"/>
+      <c r="E75" s="163"/>
       <c r="F75" s="90"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
       <c r="K75" s="91"/>
       <c r="L75" s="91"/>
       <c r="M75" s="90"/>
@@ -5899,12 +6018,12 @@
       </c>
       <c r="C76" s="93"/>
       <c r="D76" s="94"/>
-      <c r="E76" s="173"/>
+      <c r="E76" s="163"/>
       <c r="F76" s="90"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="141"/>
-      <c r="I76" s="141"/>
-      <c r="J76" s="141"/>
+      <c r="G76" s="131"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
       <c r="K76" s="18"/>
       <c r="L76" s="95"/>
       <c r="M76" s="90"/>
@@ -5919,12 +6038,12 @@
       <c r="B77" s="98"/>
       <c r="C77" s="93"/>
       <c r="D77" s="99"/>
-      <c r="E77" s="166"/>
+      <c r="E77" s="156"/>
       <c r="F77" s="100"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="143"/>
-      <c r="I77" s="143"/>
-      <c r="J77" s="143"/>
+      <c r="G77" s="133"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="134"/>
       <c r="K77" s="18"/>
       <c r="L77" s="95"/>
       <c r="M77" s="100"/>
@@ -5939,12 +6058,12 @@
       <c r="B78" s="102"/>
       <c r="C78" s="93"/>
       <c r="D78" s="99"/>
-      <c r="E78" s="166"/>
+      <c r="E78" s="156"/>
       <c r="F78" s="103"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="143"/>
-      <c r="J78" s="143"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="103"/>
@@ -5959,12 +6078,12 @@
       <c r="B79" s="102"/>
       <c r="C79" s="93"/>
       <c r="D79" s="99"/>
-      <c r="E79" s="166"/>
+      <c r="E79" s="156"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="144"/>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -5979,12 +6098,12 @@
       <c r="B80" s="102"/>
       <c r="C80" s="93"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="166"/>
+      <c r="E80" s="156"/>
       <c r="F80" s="103"/>
-      <c r="G80" s="142"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="143"/>
-      <c r="J80" s="143"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="134"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="103"/>
@@ -5999,12 +6118,12 @@
       <c r="B81" s="102"/>
       <c r="C81" s="93"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="166"/>
+      <c r="E81" s="156"/>
       <c r="F81" s="103"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="143"/>
-      <c r="J81" s="143"/>
+      <c r="G81" s="133"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="134"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="103"/>
@@ -6019,12 +6138,12 @@
       <c r="B82" s="102"/>
       <c r="C82" s="93"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="166"/>
+      <c r="E82" s="156"/>
       <c r="F82" s="103"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="143"/>
-      <c r="I82" s="143"/>
-      <c r="J82" s="143"/>
+      <c r="G82" s="133"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="134"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="103"/>
@@ -6039,12 +6158,12 @@
       <c r="B83" s="102"/>
       <c r="C83" s="93"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="166"/>
+      <c r="E83" s="156"/>
       <c r="F83" s="103"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="143"/>
-      <c r="J83" s="143"/>
+      <c r="G83" s="133"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
+      <c r="J83" s="134"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="103"/>
@@ -6059,12 +6178,12 @@
       <c r="B84" s="102"/>
       <c r="C84" s="93"/>
       <c r="D84" s="99"/>
-      <c r="E84" s="166"/>
+      <c r="E84" s="156"/>
       <c r="F84" s="103"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="143"/>
-      <c r="J84" s="143"/>
+      <c r="G84" s="133"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="134"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="103"/>
@@ -6076,12 +6195,12 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D85" s="99"/>
-      <c r="E85" s="166"/>
+      <c r="E85" s="156"/>
       <c r="F85" s="103"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="143"/>
-      <c r="J85" s="143"/>
+      <c r="G85" s="133"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
+      <c r="J85" s="134"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="103"/>
@@ -6093,12 +6212,12 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D86" s="99"/>
-      <c r="E86" s="170"/>
+      <c r="E86" s="160"/>
       <c r="F86" s="61"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="147"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="138"/>
+      <c r="I86" s="138"/>
+      <c r="J86" s="138"/>
       <c r="K86" s="105"/>
       <c r="L86" s="18"/>
       <c r="M86" s="31"/>
@@ -6110,12 +6229,12 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D87" s="99"/>
-      <c r="E87" s="166"/>
+      <c r="E87" s="156"/>
       <c r="F87" s="103"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="143"/>
-      <c r="J87" s="143"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
+      <c r="J87" s="134"/>
       <c r="K87" s="105"/>
       <c r="L87" s="106"/>
       <c r="M87" s="107"/>
@@ -6127,12 +6246,12 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D88" s="99"/>
-      <c r="E88" s="166"/>
+      <c r="E88" s="156"/>
       <c r="F88" s="103"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="143"/>
-      <c r="I88" s="143"/>
-      <c r="J88" s="143"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
+      <c r="J88" s="134"/>
       <c r="K88" s="105"/>
       <c r="L88" s="105"/>
       <c r="M88" s="31"/>
@@ -6144,12 +6263,12 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D89" s="108"/>
-      <c r="E89" s="166"/>
+      <c r="E89" s="156"/>
       <c r="F89" s="103"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="143"/>
-      <c r="I89" s="143"/>
-      <c r="J89" s="143"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
+      <c r="J89" s="134"/>
       <c r="K89" s="105"/>
       <c r="L89" s="105"/>
       <c r="M89" s="31"/>
@@ -6161,12 +6280,12 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D90" s="108"/>
-      <c r="E90" s="166"/>
+      <c r="E90" s="156"/>
       <c r="F90" s="103"/>
-      <c r="G90" s="142"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="143"/>
-      <c r="J90" s="143"/>
+      <c r="G90" s="133"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="134"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
       <c r="M90" s="31"/>
@@ -6178,12 +6297,12 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D91" s="108"/>
-      <c r="E91" s="166"/>
+      <c r="E91" s="156"/>
       <c r="F91" s="103"/>
-      <c r="G91" s="142"/>
-      <c r="H91" s="143"/>
-      <c r="I91" s="143"/>
-      <c r="J91" s="143"/>
+      <c r="G91" s="133"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
+      <c r="J91" s="134"/>
       <c r="K91" s="105"/>
       <c r="L91" s="105"/>
       <c r="M91" s="31"/>
@@ -6195,12 +6314,12 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D92" s="108"/>
-      <c r="E92" s="170"/>
+      <c r="E92" s="160"/>
       <c r="F92" s="61"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="147"/>
-      <c r="I92" s="147"/>
-      <c r="J92" s="147"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="138"/>
+      <c r="I92" s="138"/>
+      <c r="J92" s="138"/>
       <c r="K92" s="105"/>
       <c r="L92" s="105"/>
       <c r="M92" s="31"/>
@@ -6212,12 +6331,12 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D93" s="108"/>
-      <c r="E93" s="166"/>
+      <c r="E93" s="156"/>
       <c r="F93" s="103"/>
-      <c r="G93" s="142"/>
-      <c r="H93" s="143"/>
-      <c r="I93" s="143"/>
-      <c r="J93" s="143"/>
+      <c r="G93" s="133"/>
+      <c r="H93" s="134"/>
+      <c r="I93" s="134"/>
+      <c r="J93" s="134"/>
       <c r="K93" s="105"/>
       <c r="L93" s="105"/>
       <c r="M93" s="31"/>
@@ -6229,12 +6348,12 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D94" s="108"/>
-      <c r="E94" s="166"/>
+      <c r="E94" s="156"/>
       <c r="F94" s="103"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="143"/>
-      <c r="I94" s="143"/>
-      <c r="J94" s="143"/>
+      <c r="G94" s="133"/>
+      <c r="H94" s="134"/>
+      <c r="I94" s="134"/>
+      <c r="J94" s="134"/>
       <c r="K94" s="105"/>
       <c r="L94" s="105"/>
       <c r="M94" s="31"/>
@@ -6246,12 +6365,12 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D95" s="108"/>
-      <c r="E95" s="166"/>
+      <c r="E95" s="156"/>
       <c r="F95" s="103"/>
-      <c r="G95" s="142"/>
-      <c r="H95" s="143"/>
-      <c r="I95" s="143"/>
-      <c r="J95" s="143"/>
+      <c r="G95" s="133"/>
+      <c r="H95" s="134"/>
+      <c r="I95" s="134"/>
+      <c r="J95" s="134"/>
       <c r="K95" s="105"/>
       <c r="L95" s="105"/>
       <c r="M95" s="31"/>
@@ -6263,12 +6382,12 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D96" s="108"/>
-      <c r="E96" s="166"/>
+      <c r="E96" s="156"/>
       <c r="F96" s="103"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="143"/>
-      <c r="I96" s="143"/>
-      <c r="J96" s="143"/>
+      <c r="G96" s="133"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="134"/>
       <c r="K96" s="103"/>
       <c r="L96" s="105"/>
       <c r="M96" s="31"/>
@@ -6280,12 +6399,12 @@
     </row>
     <row r="97" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D97" s="108"/>
-      <c r="E97" s="166"/>
+      <c r="E97" s="156"/>
       <c r="F97" s="103"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="143"/>
-      <c r="I97" s="143"/>
-      <c r="J97" s="143"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="134"/>
+      <c r="I97" s="134"/>
+      <c r="J97" s="134"/>
       <c r="K97" s="105"/>
       <c r="L97" s="105"/>
       <c r="M97" s="31"/>
@@ -6297,12 +6416,12 @@
     </row>
     <row r="98" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D98" s="108"/>
-      <c r="E98" s="166"/>
+      <c r="E98" s="156"/>
       <c r="F98" s="103"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="143"/>
-      <c r="I98" s="143"/>
-      <c r="J98" s="143"/>
+      <c r="G98" s="133"/>
+      <c r="H98" s="134"/>
+      <c r="I98" s="134"/>
+      <c r="J98" s="134"/>
       <c r="K98" s="105"/>
       <c r="L98" s="105"/>
       <c r="M98" s="31"/>
@@ -6314,12 +6433,12 @@
     </row>
     <row r="99" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D99" s="108"/>
-      <c r="E99" s="166"/>
+      <c r="E99" s="156"/>
       <c r="F99" s="103"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="143"/>
-      <c r="I99" s="143"/>
-      <c r="J99" s="143"/>
+      <c r="G99" s="133"/>
+      <c r="H99" s="134"/>
+      <c r="I99" s="134"/>
+      <c r="J99" s="134"/>
       <c r="K99" s="31"/>
       <c r="L99" s="105"/>
       <c r="M99" s="31"/>
@@ -6331,12 +6450,12 @@
     </row>
     <row r="100" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D100" s="108"/>
-      <c r="E100" s="166"/>
+      <c r="E100" s="156"/>
       <c r="F100" s="103"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="143"/>
-      <c r="I100" s="143"/>
-      <c r="J100" s="143"/>
+      <c r="G100" s="133"/>
+      <c r="H100" s="134"/>
+      <c r="I100" s="134"/>
+      <c r="J100" s="134"/>
       <c r="K100" s="105"/>
       <c r="L100" s="105"/>
       <c r="M100" s="105"/>
@@ -6348,12 +6467,12 @@
     </row>
     <row r="101" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D101" s="108"/>
-      <c r="E101" s="170"/>
+      <c r="E101" s="160"/>
       <c r="F101" s="103"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="143"/>
-      <c r="I101" s="143"/>
-      <c r="J101" s="143"/>
+      <c r="G101" s="133"/>
+      <c r="H101" s="134"/>
+      <c r="I101" s="134"/>
+      <c r="J101" s="134"/>
       <c r="K101" s="105"/>
       <c r="L101" s="105"/>
       <c r="M101" s="31"/>
@@ -6365,12 +6484,12 @@
     </row>
     <row r="102" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D102" s="108"/>
-      <c r="E102" s="170"/>
+      <c r="E102" s="160"/>
       <c r="F102" s="31"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="149"/>
-      <c r="I102" s="149"/>
-      <c r="J102" s="149"/>
+      <c r="G102" s="139"/>
+      <c r="H102" s="140"/>
+      <c r="I102" s="140"/>
+      <c r="J102" s="140"/>
       <c r="K102" s="105"/>
       <c r="L102" s="31"/>
       <c r="M102" s="31"/>
@@ -6382,12 +6501,12 @@
     </row>
     <row r="103" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D103" s="108"/>
-      <c r="E103" s="170"/>
+      <c r="E103" s="160"/>
       <c r="F103" s="61"/>
-      <c r="G103" s="146"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="147"/>
+      <c r="G103" s="137"/>
+      <c r="H103" s="138"/>
+      <c r="I103" s="138"/>
+      <c r="J103" s="138"/>
       <c r="K103" s="31"/>
       <c r="L103" s="105"/>
       <c r="M103" s="105"/>
@@ -6399,12 +6518,12 @@
     </row>
     <row r="104" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D104" s="108"/>
-      <c r="E104" s="170"/>
+      <c r="E104" s="160"/>
       <c r="F104" s="61"/>
-      <c r="G104" s="146"/>
-      <c r="H104" s="147"/>
-      <c r="I104" s="147"/>
-      <c r="J104" s="147"/>
+      <c r="G104" s="137"/>
+      <c r="H104" s="138"/>
+      <c r="I104" s="138"/>
+      <c r="J104" s="138"/>
       <c r="K104" s="31"/>
       <c r="L104" s="105"/>
       <c r="M104" s="105"/>
@@ -6416,12 +6535,12 @@
     </row>
     <row r="105" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D105" s="108"/>
-      <c r="E105" s="170"/>
+      <c r="E105" s="160"/>
       <c r="F105" s="61"/>
-      <c r="G105" s="146"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="147"/>
+      <c r="G105" s="137"/>
+      <c r="H105" s="138"/>
+      <c r="I105" s="138"/>
+      <c r="J105" s="138"/>
       <c r="K105" s="31"/>
       <c r="L105" s="105"/>
       <c r="M105" s="105"/>
@@ -6433,12 +6552,12 @@
     </row>
     <row r="106" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D106" s="108"/>
-      <c r="E106" s="170"/>
+      <c r="E106" s="160"/>
       <c r="F106" s="61"/>
-      <c r="G106" s="146"/>
-      <c r="H106" s="147"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
+      <c r="G106" s="137"/>
+      <c r="H106" s="138"/>
+      <c r="I106" s="138"/>
+      <c r="J106" s="138"/>
       <c r="K106" s="31"/>
       <c r="L106" s="105"/>
       <c r="M106" s="105"/>
@@ -6450,12 +6569,12 @@
     </row>
     <row r="107" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D107" s="108"/>
-      <c r="E107" s="170"/>
+      <c r="E107" s="160"/>
       <c r="F107" s="61"/>
-      <c r="G107" s="146"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="147"/>
+      <c r="G107" s="137"/>
+      <c r="H107" s="138"/>
+      <c r="I107" s="138"/>
+      <c r="J107" s="138"/>
       <c r="K107" s="31"/>
       <c r="L107" s="105"/>
       <c r="M107" s="105"/>
@@ -6467,12 +6586,12 @@
     </row>
     <row r="108" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D108" s="108"/>
-      <c r="E108" s="170"/>
+      <c r="E108" s="160"/>
       <c r="F108" s="61"/>
-      <c r="G108" s="146"/>
-      <c r="H108" s="147"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147"/>
+      <c r="G108" s="137"/>
+      <c r="H108" s="138"/>
+      <c r="I108" s="138"/>
+      <c r="J108" s="138"/>
       <c r="K108" s="31"/>
       <c r="L108" s="105"/>
       <c r="M108" s="105"/>
@@ -6484,12 +6603,12 @@
     </row>
     <row r="109" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D109" s="108"/>
-      <c r="E109" s="170"/>
+      <c r="E109" s="160"/>
       <c r="F109" s="61"/>
-      <c r="G109" s="146"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="147"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="138"/>
+      <c r="I109" s="138"/>
+      <c r="J109" s="138"/>
       <c r="K109" s="31"/>
       <c r="L109" s="105"/>
       <c r="M109" s="105"/>
@@ -6501,12 +6620,12 @@
     </row>
     <row r="110" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D110" s="108"/>
-      <c r="E110" s="170"/>
+      <c r="E110" s="160"/>
       <c r="F110" s="61"/>
-      <c r="G110" s="146"/>
-      <c r="H110" s="147"/>
-      <c r="I110" s="147"/>
-      <c r="J110" s="147"/>
+      <c r="G110" s="137"/>
+      <c r="H110" s="138"/>
+      <c r="I110" s="138"/>
+      <c r="J110" s="138"/>
       <c r="K110" s="31"/>
       <c r="L110" s="31"/>
       <c r="M110" s="105"/>
@@ -6518,12 +6637,12 @@
     </row>
     <row r="111" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D111" s="108"/>
-      <c r="E111" s="170"/>
+      <c r="E111" s="160"/>
       <c r="F111" s="61"/>
-      <c r="G111" s="146"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="147"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="138"/>
+      <c r="I111" s="138"/>
+      <c r="J111" s="138"/>
       <c r="K111" s="31"/>
       <c r="L111" s="105"/>
       <c r="M111" s="105"/>
@@ -6535,12 +6654,12 @@
     </row>
     <row r="112" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D112" s="108"/>
-      <c r="E112" s="170"/>
+      <c r="E112" s="160"/>
       <c r="F112" s="61"/>
-      <c r="G112" s="146"/>
-      <c r="H112" s="147"/>
-      <c r="I112" s="147"/>
-      <c r="J112" s="147"/>
+      <c r="G112" s="137"/>
+      <c r="H112" s="138"/>
+      <c r="I112" s="138"/>
+      <c r="J112" s="138"/>
       <c r="K112" s="31"/>
       <c r="L112" s="105"/>
       <c r="M112" s="105"/>
@@ -6552,12 +6671,12 @@
     </row>
     <row r="113" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D113" s="108"/>
-      <c r="E113" s="170"/>
+      <c r="E113" s="160"/>
       <c r="F113" s="61"/>
-      <c r="G113" s="146"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="147"/>
+      <c r="G113" s="137"/>
+      <c r="H113" s="138"/>
+      <c r="I113" s="138"/>
+      <c r="J113" s="138"/>
       <c r="K113" s="31"/>
       <c r="L113" s="31"/>
       <c r="M113" s="105"/>
@@ -6569,12 +6688,12 @@
     </row>
     <row r="114" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D114" s="108"/>
-      <c r="E114" s="170"/>
+      <c r="E114" s="160"/>
       <c r="F114" s="61"/>
-      <c r="G114" s="146"/>
-      <c r="H114" s="147"/>
-      <c r="I114" s="147"/>
-      <c r="J114" s="147"/>
+      <c r="G114" s="137"/>
+      <c r="H114" s="138"/>
+      <c r="I114" s="138"/>
+      <c r="J114" s="138"/>
       <c r="K114" s="31"/>
       <c r="L114" s="31"/>
       <c r="M114" s="105"/>
@@ -6586,12 +6705,12 @@
     </row>
     <row r="115" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D115" s="108"/>
-      <c r="E115" s="170"/>
+      <c r="E115" s="160"/>
       <c r="F115" s="61"/>
-      <c r="G115" s="146"/>
-      <c r="H115" s="147"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="147"/>
+      <c r="G115" s="137"/>
+      <c r="H115" s="138"/>
+      <c r="I115" s="138"/>
+      <c r="J115" s="138"/>
       <c r="K115" s="31"/>
       <c r="L115" s="105"/>
       <c r="M115" s="105"/>
@@ -6603,12 +6722,12 @@
     </row>
     <row r="116" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D116" s="108"/>
-      <c r="E116" s="170"/>
+      <c r="E116" s="160"/>
       <c r="F116" s="61"/>
-      <c r="G116" s="146"/>
-      <c r="H116" s="147"/>
-      <c r="I116" s="147"/>
-      <c r="J116" s="147"/>
+      <c r="G116" s="137"/>
+      <c r="H116" s="138"/>
+      <c r="I116" s="138"/>
+      <c r="J116" s="138"/>
       <c r="K116" s="31"/>
       <c r="L116" s="105"/>
       <c r="M116" s="105"/>
@@ -6620,12 +6739,12 @@
     </row>
     <row r="117" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D117" s="108"/>
-      <c r="E117" s="170"/>
+      <c r="E117" s="160"/>
       <c r="F117" s="61"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="147"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="138"/>
+      <c r="I117" s="138"/>
+      <c r="J117" s="138"/>
       <c r="K117" s="31"/>
       <c r="L117" s="105"/>
       <c r="M117" s="31"/>
@@ -6637,12 +6756,12 @@
     </row>
     <row r="118" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D118" s="108"/>
-      <c r="E118" s="170"/>
+      <c r="E118" s="160"/>
       <c r="F118" s="61"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="147"/>
-      <c r="I118" s="147"/>
-      <c r="J118" s="147"/>
+      <c r="G118" s="137"/>
+      <c r="H118" s="138"/>
+      <c r="I118" s="138"/>
+      <c r="J118" s="138"/>
       <c r="K118" s="31"/>
       <c r="L118" s="31"/>
       <c r="M118" s="31"/>
@@ -6654,12 +6773,12 @@
     </row>
     <row r="119" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D119" s="108"/>
-      <c r="E119" s="170"/>
+      <c r="E119" s="160"/>
       <c r="F119" s="61"/>
-      <c r="G119" s="146"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="147"/>
+      <c r="G119" s="137"/>
+      <c r="H119" s="138"/>
+      <c r="I119" s="138"/>
+      <c r="J119" s="138"/>
       <c r="K119" s="31"/>
       <c r="L119" s="105"/>
       <c r="M119" s="31"/>
@@ -6671,12 +6790,12 @@
     </row>
     <row r="120" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D120" s="108"/>
-      <c r="E120" s="170"/>
+      <c r="E120" s="160"/>
       <c r="F120" s="109"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="151"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="151"/>
+      <c r="G120" s="141"/>
+      <c r="H120" s="142"/>
+      <c r="I120" s="142"/>
+      <c r="J120" s="142"/>
       <c r="K120" s="31"/>
       <c r="L120" s="105"/>
       <c r="M120" s="105"/>
@@ -6688,12 +6807,12 @@
     </row>
     <row r="121" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D121" s="108"/>
-      <c r="E121" s="170"/>
+      <c r="E121" s="160"/>
       <c r="F121" s="31"/>
-      <c r="G121" s="148"/>
-      <c r="H121" s="149"/>
-      <c r="I121" s="149"/>
-      <c r="J121" s="149"/>
+      <c r="G121" s="139"/>
+      <c r="H121" s="140"/>
+      <c r="I121" s="140"/>
+      <c r="J121" s="140"/>
       <c r="K121" s="31"/>
       <c r="L121" s="105"/>
       <c r="M121" s="31"/>
@@ -6705,12 +6824,12 @@
     </row>
     <row r="122" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D122" s="108"/>
-      <c r="E122" s="170"/>
+      <c r="E122" s="160"/>
       <c r="F122" s="31"/>
-      <c r="G122" s="148"/>
-      <c r="H122" s="149"/>
-      <c r="I122" s="149"/>
-      <c r="J122" s="149"/>
+      <c r="G122" s="139"/>
+      <c r="H122" s="140"/>
+      <c r="I122" s="140"/>
+      <c r="J122" s="140"/>
       <c r="K122" s="31"/>
       <c r="L122" s="105"/>
       <c r="M122" s="108"/>
@@ -6722,12 +6841,12 @@
     </row>
     <row r="123" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D123" s="108"/>
-      <c r="E123" s="170"/>
+      <c r="E123" s="160"/>
       <c r="F123" s="31"/>
-      <c r="G123" s="148"/>
-      <c r="H123" s="149"/>
-      <c r="I123" s="149"/>
-      <c r="J123" s="149"/>
+      <c r="G123" s="139"/>
+      <c r="H123" s="140"/>
+      <c r="I123" s="140"/>
+      <c r="J123" s="140"/>
       <c r="K123" s="31"/>
       <c r="L123" s="105"/>
       <c r="M123" s="31"/>
@@ -6739,12 +6858,12 @@
     </row>
     <row r="124" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D124" s="108"/>
-      <c r="E124" s="170"/>
+      <c r="E124" s="160"/>
       <c r="F124" s="31"/>
-      <c r="G124" s="148"/>
-      <c r="H124" s="149"/>
-      <c r="I124" s="149"/>
-      <c r="J124" s="149"/>
+      <c r="G124" s="139"/>
+      <c r="H124" s="140"/>
+      <c r="I124" s="140"/>
+      <c r="J124" s="140"/>
       <c r="K124" s="31"/>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
@@ -6756,12 +6875,12 @@
     </row>
     <row r="125" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D125" s="108"/>
-      <c r="E125" s="170"/>
+      <c r="E125" s="160"/>
       <c r="F125" s="31"/>
-      <c r="G125" s="148"/>
-      <c r="H125" s="149"/>
-      <c r="I125" s="149"/>
-      <c r="J125" s="149"/>
+      <c r="G125" s="139"/>
+      <c r="H125" s="140"/>
+      <c r="I125" s="140"/>
+      <c r="J125" s="140"/>
       <c r="K125" s="31"/>
       <c r="L125" s="105"/>
       <c r="M125" s="31"/>
@@ -6773,12 +6892,12 @@
     </row>
     <row r="126" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D126" s="108"/>
-      <c r="E126" s="170"/>
+      <c r="E126" s="160"/>
       <c r="F126" s="31"/>
-      <c r="G126" s="148"/>
-      <c r="H126" s="149"/>
-      <c r="I126" s="149"/>
-      <c r="J126" s="149"/>
+      <c r="G126" s="139"/>
+      <c r="H126" s="140"/>
+      <c r="I126" s="140"/>
+      <c r="J126" s="140"/>
       <c r="K126" s="31"/>
       <c r="L126" s="105"/>
       <c r="M126" s="108"/>
@@ -6790,12 +6909,12 @@
     </row>
     <row r="127" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D127" s="108"/>
-      <c r="E127" s="170"/>
+      <c r="E127" s="160"/>
       <c r="F127" s="31"/>
-      <c r="G127" s="148"/>
-      <c r="H127" s="149"/>
-      <c r="I127" s="149"/>
-      <c r="J127" s="149"/>
+      <c r="G127" s="139"/>
+      <c r="H127" s="140"/>
+      <c r="I127" s="140"/>
+      <c r="J127" s="140"/>
       <c r="K127" s="31"/>
       <c r="L127" s="105"/>
       <c r="M127" s="31"/>
@@ -6807,12 +6926,12 @@
     </row>
     <row r="128" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D128" s="108"/>
-      <c r="E128" s="170"/>
+      <c r="E128" s="160"/>
       <c r="F128" s="31"/>
-      <c r="G128" s="148"/>
-      <c r="H128" s="149"/>
-      <c r="I128" s="149"/>
-      <c r="J128" s="149"/>
+      <c r="G128" s="139"/>
+      <c r="H128" s="140"/>
+      <c r="I128" s="140"/>
+      <c r="J128" s="140"/>
       <c r="K128" s="31"/>
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
@@ -6824,12 +6943,12 @@
     </row>
     <row r="129" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D129" s="108"/>
-      <c r="E129" s="170"/>
+      <c r="E129" s="160"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="148"/>
-      <c r="H129" s="149"/>
-      <c r="I129" s="149"/>
-      <c r="J129" s="149"/>
+      <c r="G129" s="139"/>
+      <c r="H129" s="140"/>
+      <c r="I129" s="140"/>
+      <c r="J129" s="140"/>
       <c r="K129" s="105"/>
       <c r="L129" s="105"/>
       <c r="M129" s="31"/>
@@ -6841,12 +6960,12 @@
     </row>
     <row r="130" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D130" s="108"/>
-      <c r="E130" s="170"/>
+      <c r="E130" s="160"/>
       <c r="F130" s="31"/>
-      <c r="G130" s="148"/>
-      <c r="H130" s="149"/>
-      <c r="I130" s="149"/>
-      <c r="J130" s="149"/>
+      <c r="G130" s="139"/>
+      <c r="H130" s="140"/>
+      <c r="I130" s="140"/>
+      <c r="J130" s="140"/>
       <c r="K130" s="31"/>
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
@@ -6858,12 +6977,12 @@
     </row>
     <row r="131" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D131" s="108"/>
-      <c r="E131" s="170"/>
+      <c r="E131" s="160"/>
       <c r="F131" s="31"/>
-      <c r="G131" s="148"/>
-      <c r="H131" s="149"/>
-      <c r="I131" s="149"/>
-      <c r="J131" s="149"/>
+      <c r="G131" s="139"/>
+      <c r="H131" s="140"/>
+      <c r="I131" s="140"/>
+      <c r="J131" s="140"/>
       <c r="K131" s="31"/>
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
@@ -6875,12 +6994,12 @@
     </row>
     <row r="132" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D132" s="108"/>
-      <c r="E132" s="170"/>
+      <c r="E132" s="160"/>
       <c r="F132" s="31"/>
-      <c r="G132" s="148"/>
-      <c r="H132" s="149"/>
-      <c r="I132" s="149"/>
-      <c r="J132" s="149"/>
+      <c r="G132" s="139"/>
+      <c r="H132" s="140"/>
+      <c r="I132" s="140"/>
+      <c r="J132" s="140"/>
       <c r="K132" s="31"/>
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
@@ -6892,12 +7011,12 @@
     </row>
     <row r="133" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D133" s="108"/>
-      <c r="E133" s="170"/>
+      <c r="E133" s="160"/>
       <c r="F133" s="31"/>
-      <c r="G133" s="148"/>
-      <c r="H133" s="149"/>
-      <c r="I133" s="149"/>
-      <c r="J133" s="149"/>
+      <c r="G133" s="139"/>
+      <c r="H133" s="140"/>
+      <c r="I133" s="140"/>
+      <c r="J133" s="140"/>
       <c r="K133" s="31"/>
       <c r="L133" s="31"/>
       <c r="M133" s="31"/>
@@ -6909,12 +7028,12 @@
     </row>
     <row r="134" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D134" s="108"/>
-      <c r="E134" s="170"/>
+      <c r="E134" s="160"/>
       <c r="F134" s="31"/>
-      <c r="G134" s="148"/>
-      <c r="H134" s="149"/>
-      <c r="I134" s="149"/>
-      <c r="J134" s="149"/>
+      <c r="G134" s="139"/>
+      <c r="H134" s="140"/>
+      <c r="I134" s="140"/>
+      <c r="J134" s="140"/>
       <c r="K134" s="31"/>
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
@@ -6926,12 +7045,12 @@
     </row>
     <row r="135" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D135" s="108"/>
-      <c r="E135" s="170"/>
+      <c r="E135" s="160"/>
       <c r="F135" s="31"/>
-      <c r="G135" s="148"/>
-      <c r="H135" s="149"/>
-      <c r="I135" s="149"/>
-      <c r="J135" s="149"/>
+      <c r="G135" s="139"/>
+      <c r="H135" s="140"/>
+      <c r="I135" s="140"/>
+      <c r="J135" s="140"/>
       <c r="K135" s="31"/>
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
@@ -6943,12 +7062,12 @@
     </row>
     <row r="136" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D136" s="108"/>
-      <c r="E136" s="170"/>
+      <c r="E136" s="160"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="148"/>
-      <c r="H136" s="149"/>
-      <c r="I136" s="149"/>
-      <c r="J136" s="149"/>
+      <c r="G136" s="139"/>
+      <c r="H136" s="140"/>
+      <c r="I136" s="140"/>
+      <c r="J136" s="140"/>
       <c r="K136" s="31"/>
       <c r="L136" s="31"/>
       <c r="M136" s="31"/>
@@ -6960,12 +7079,12 @@
     </row>
     <row r="137" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D137" s="108"/>
-      <c r="E137" s="170"/>
+      <c r="E137" s="160"/>
       <c r="F137" s="31"/>
-      <c r="G137" s="148"/>
-      <c r="H137" s="149"/>
-      <c r="I137" s="149"/>
-      <c r="J137" s="149"/>
+      <c r="G137" s="139"/>
+      <c r="H137" s="140"/>
+      <c r="I137" s="140"/>
+      <c r="J137" s="140"/>
       <c r="K137" s="31"/>
       <c r="L137" s="31"/>
       <c r="M137" s="31"/>
@@ -6977,12 +7096,12 @@
     </row>
     <row r="138" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D138" s="108"/>
-      <c r="E138" s="170"/>
+      <c r="E138" s="160"/>
       <c r="F138" s="31"/>
-      <c r="G138" s="148"/>
-      <c r="H138" s="149"/>
-      <c r="I138" s="149"/>
-      <c r="J138" s="149"/>
+      <c r="G138" s="139"/>
+      <c r="H138" s="140"/>
+      <c r="I138" s="140"/>
+      <c r="J138" s="140"/>
       <c r="K138" s="31"/>
       <c r="L138" s="31"/>
       <c r="M138" s="31"/>
@@ -6994,12 +7113,12 @@
     </row>
     <row r="139" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D139" s="108"/>
-      <c r="E139" s="170"/>
+      <c r="E139" s="160"/>
       <c r="F139" s="31"/>
-      <c r="G139" s="148"/>
-      <c r="H139" s="149"/>
-      <c r="I139" s="149"/>
-      <c r="J139" s="149"/>
+      <c r="G139" s="139"/>
+      <c r="H139" s="140"/>
+      <c r="I139" s="140"/>
+      <c r="J139" s="140"/>
       <c r="K139" s="31"/>
       <c r="L139" s="31"/>
       <c r="M139" s="31"/>
@@ -7011,12 +7130,12 @@
     </row>
     <row r="140" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D140" s="108"/>
-      <c r="E140" s="170"/>
+      <c r="E140" s="160"/>
       <c r="F140" s="31"/>
-      <c r="G140" s="148"/>
-      <c r="H140" s="149"/>
-      <c r="I140" s="149"/>
-      <c r="J140" s="149"/>
+      <c r="G140" s="139"/>
+      <c r="H140" s="140"/>
+      <c r="I140" s="140"/>
+      <c r="J140" s="140"/>
       <c r="K140" s="31"/>
       <c r="L140" s="31"/>
       <c r="M140" s="31"/>
@@ -7028,12 +7147,12 @@
     </row>
     <row r="141" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D141" s="108"/>
-      <c r="E141" s="170"/>
+      <c r="E141" s="160"/>
       <c r="F141" s="31"/>
-      <c r="G141" s="148"/>
-      <c r="H141" s="149"/>
-      <c r="I141" s="149"/>
-      <c r="J141" s="149"/>
+      <c r="G141" s="139"/>
+      <c r="H141" s="140"/>
+      <c r="I141" s="140"/>
+      <c r="J141" s="140"/>
       <c r="K141" s="31"/>
       <c r="L141" s="31"/>
       <c r="M141" s="31"/>
@@ -7045,12 +7164,12 @@
     </row>
     <row r="142" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D142" s="108"/>
-      <c r="E142" s="170"/>
+      <c r="E142" s="160"/>
       <c r="F142" s="31"/>
-      <c r="G142" s="148"/>
-      <c r="H142" s="149"/>
-      <c r="I142" s="149"/>
-      <c r="J142" s="149"/>
+      <c r="G142" s="139"/>
+      <c r="H142" s="140"/>
+      <c r="I142" s="140"/>
+      <c r="J142" s="140"/>
       <c r="K142" s="31"/>
       <c r="L142" s="31"/>
       <c r="M142" s="31"/>
@@ -7062,12 +7181,12 @@
     </row>
     <row r="143" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D143" s="108"/>
-      <c r="E143" s="170"/>
+      <c r="E143" s="160"/>
       <c r="F143" s="31"/>
-      <c r="G143" s="148"/>
-      <c r="H143" s="149"/>
-      <c r="I143" s="149"/>
-      <c r="J143" s="149"/>
+      <c r="G143" s="139"/>
+      <c r="H143" s="140"/>
+      <c r="I143" s="140"/>
+      <c r="J143" s="140"/>
       <c r="K143" s="31"/>
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
@@ -7079,12 +7198,12 @@
     </row>
     <row r="144" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D144" s="108"/>
-      <c r="E144" s="170"/>
+      <c r="E144" s="160"/>
       <c r="F144" s="31"/>
-      <c r="G144" s="148"/>
-      <c r="H144" s="149"/>
-      <c r="I144" s="149"/>
-      <c r="J144" s="149"/>
+      <c r="G144" s="139"/>
+      <c r="H144" s="140"/>
+      <c r="I144" s="140"/>
+      <c r="J144" s="140"/>
       <c r="K144" s="31"/>
       <c r="L144" s="31"/>
       <c r="M144" s="31"/>
@@ -7095,14 +7214,20 @@
       <c r="R144" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AF3">
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+  </autoFilter>
   <mergeCells count="7">
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="F71:K72"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="F71:K72"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:N68 P4:Q68 S4:T68 V4:W68">

--- a/exemplos/exemplo lacon.xlsx
+++ b/exemplos/exemplo lacon.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$AF$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$AF$69</definedName>
     <definedName name="parcela">[1]Listas!$B$1:$B$10</definedName>
     <definedName name="Status">[1]Listas!$A$1:$A$4</definedName>
   </definedNames>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="118">
   <si>
     <t>MÊS DE PAGAMENTO: MARÇO - 2023</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>SIMPLES</t>
-  </si>
-  <si>
-    <t>simples</t>
   </si>
 </sst>
 </file>
@@ -1307,23 +1304,23 @@
     <xf numFmtId="14" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1941,9 +1938,9 @@
       <c r="J2" s="153"/>
       <c r="K2" s="151"/>
       <c r="L2" s="151"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
       <c r="P2" s="151"/>
       <c r="Q2" s="151"/>
       <c r="R2" s="151"/>
@@ -1998,31 +1995,31 @@
       <c r="L3" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="171" t="s">
+      <c r="M3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="171"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="172" t="s">
+      <c r="P3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="173"/>
+      <c r="Q3" s="175"/>
       <c r="R3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="171" t="s">
+      <c r="S3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="171"/>
+      <c r="T3" s="170"/>
       <c r="U3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="171" t="s">
+      <c r="V3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="171"/>
+      <c r="W3" s="170"/>
       <c r="X3" s="110" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>15055</v>
       </c>
       <c r="G10" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H10" s="116" t="s">
         <v>21</v>
@@ -2840,7 +2837,7 @@
         <v>3712.15</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H19" s="116" t="s">
         <v>21</v>
@@ -3039,7 +3036,7 @@
         <v>4954.97</v>
       </c>
       <c r="G22" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H22" s="116" t="s">
         <v>21</v>
@@ -3293,7 +3290,7 @@
         <v>11670.529999999999</v>
       </c>
       <c r="G26" s="116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="116" t="s">
         <v>21</v>
@@ -3718,7 +3715,7 @@
         <v>4522.28</v>
       </c>
       <c r="G33" s="123" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H33" s="123" t="s">
         <v>21</v>
@@ -3975,7 +3972,7 @@
         <v>8396.4599999999991</v>
       </c>
       <c r="G39" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H39" s="116" t="s">
         <v>21</v>
@@ -4479,7 +4476,7 @@
         <v>4418.96</v>
       </c>
       <c r="G47" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H47" s="116" t="s">
         <v>21</v>
@@ -4547,7 +4544,7 @@
         <v>4750.0400000000009</v>
       </c>
       <c r="G48" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H48" s="116" t="s">
         <v>21</v>
@@ -4613,7 +4610,7 @@
         <v>6765.17</v>
       </c>
       <c r="G49" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H49" s="116" t="s">
         <v>21</v>
@@ -4873,7 +4870,7 @@
         <v>4320</v>
       </c>
       <c r="G53" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H53" s="116" t="s">
         <v>21</v>
@@ -5105,7 +5102,7 @@
         <v>5054.99</v>
       </c>
       <c r="G57" s="116" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H57" s="116" t="s">
         <v>21</v>
@@ -5670,7 +5667,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="44" customFormat="1" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="44" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>104</v>
       </c>
@@ -5690,7 +5687,9 @@
         <f t="shared" si="17"/>
         <v>2266.04</v>
       </c>
-      <c r="G67" s="123"/>
+      <c r="G67" s="123" t="s">
+        <v>111</v>
+      </c>
       <c r="H67" s="123" t="s">
         <v>21</v>
       </c>
@@ -5739,7 +5738,7 @@
       </c>
       <c r="AE67" s="53"/>
     </row>
-    <row r="68" spans="1:31" s="36" customFormat="1" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>106</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="AD68" s="6"/>
       <c r="AE68" s="15"/>
     </row>
-    <row r="69" spans="1:31" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="62" t="s">
         <v>107</v>
       </c>
@@ -5850,17 +5849,17 @@
       <c r="AE70" s="74"/>
     </row>
     <row r="71" spans="1:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="174" t="s">
+      <c r="A71" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="174"/>
+      <c r="B71" s="171"/>
       <c r="C71" s="75"/>
-      <c r="F71" s="175"/>
-      <c r="G71" s="175"/>
-      <c r="H71" s="175"/>
-      <c r="I71" s="175"/>
-      <c r="J71" s="175"/>
-      <c r="K71" s="175"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="172"/>
+      <c r="K71" s="172"/>
       <c r="L71" s="76"/>
       <c r="M71" s="77"/>
       <c r="N71" s="78"/>
@@ -5893,12 +5892,12 @@
       </c>
       <c r="C72" s="82"/>
       <c r="E72" s="161"/>
-      <c r="F72" s="175"/>
-      <c r="G72" s="175"/>
-      <c r="H72" s="175"/>
-      <c r="I72" s="175"/>
-      <c r="J72" s="175"/>
-      <c r="K72" s="175"/>
+      <c r="F72" s="172"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="172"/>
+      <c r="K72" s="172"/>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
       <c r="N72" s="84"/>
@@ -7214,20 +7213,14 @@
       <c r="R144" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF3">
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-  </autoFilter>
   <mergeCells count="7">
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="F71:K72"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:N68 P4:Q68 S4:T68 V4:W68">

--- a/exemplos/exemplo lacon.xlsx
+++ b/exemplos/exemplo lacon.xlsx
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7222,7 +7222,7 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:N68 P4:Q68 S4:T68 V4:W68">
       <formula1>parcela</formula1>
       <formula2>0</formula2>
